--- a/bang_ke/van_loc_phat/example/Xuất Hóa Đơn Hưng Dụ T1 26 (VLP) - XUAT HD.xlsx
+++ b/bang_ke/van_loc_phat/example/Xuất Hóa Đơn Hưng Dụ T1 26 (VLP) - XUAT HD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\bang_ke\van_loc_phat\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3EC153-94F0-49CE-A15A-518550A42EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45209AA8-8E29-4414-B1FE-9732FF3F4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="552" windowWidth="21072" windowHeight="11256" tabRatio="579" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="420" windowWidth="22020" windowHeight="11820" tabRatio="579" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A HIEU" sheetId="76" r:id="rId1"/>
     <sheet name="A NAM" sheetId="88" r:id="rId2"/>
-    <sheet name="A TU" sheetId="87" r:id="rId3"/>
+    <sheet name="A HUNG" sheetId="87" r:id="rId3"/>
     <sheet name="CHU HOANG" sheetId="86" r:id="rId4"/>
     <sheet name="A HUU" sheetId="85" r:id="rId5"/>
     <sheet name="A DANH" sheetId="84" r:id="rId6"/>
@@ -25,9 +25,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'A DANH'!$A$12:$IT$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'A HIEU'!$A$12:$IT$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'A HUNG'!$A$12:$IT$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'A HUU'!$A$12:$IT$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'A NAM'!$A$12:$IT$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'A TU'!$A$12:$IT$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'A TUẤN'!$A$12:$IT$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CHU HOANG'!$A$12:$IT$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'TÚ 4T'!$A$12:$IT$51</definedName>
@@ -740,7 +740,7 @@
   <dimension ref="A1:IT73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -7356,7 +7356,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="33"/>
       <c r="F38" s="36">
-        <f t="shared" ref="F13:F41" si="0">D38*E38</f>
+        <f t="shared" ref="F38:F41" si="0">D38*E38</f>
         <v>0</v>
       </c>
       <c r="G38" s="28"/>
@@ -7775,8 +7775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C36B24-8B2B-4FED-A552-1919A4AAD940}">
   <dimension ref="A1:IT66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -14646,7 +14646,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="33"/>
       <c r="F39" s="36">
-        <f t="shared" ref="F13:F62" si="0">D39*E39</f>
+        <f t="shared" ref="F39:F62" si="0">D39*E39</f>
         <v>0</v>
       </c>
       <c r="G39" s="28"/>
@@ -15045,7 +15045,7 @@
   <dimension ref="A1:IT66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -23205,7 +23205,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="33"/>
       <c r="F44" s="36">
-        <f t="shared" ref="F13:F62" si="0">D44*E44</f>
+        <f t="shared" ref="F44:F62" si="0">D44*E44</f>
         <v>0</v>
       </c>
       <c r="G44" s="28"/>
@@ -31694,7 +31694,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="33"/>
       <c r="F44" s="36">
-        <f t="shared" ref="F13:F62" si="0">D44*E44</f>
+        <f t="shared" ref="F44:F62" si="0">D44*E44</f>
         <v>0</v>
       </c>
       <c r="G44" s="28"/>
@@ -39151,7 +39151,7 @@
       <c r="D40" s="29"/>
       <c r="E40" s="33"/>
       <c r="F40" s="36">
-        <f t="shared" ref="F13:F62" si="0">D40*E40</f>
+        <f t="shared" ref="F40:F62" si="0">D40*E40</f>
         <v>0</v>
       </c>
       <c r="G40" s="28"/>
@@ -46145,7 +46145,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="33"/>
       <c r="F38" s="36">
-        <f t="shared" ref="F13:F62" si="0">D38*E38</f>
+        <f t="shared" ref="F38:F62" si="0">D38*E38</f>
         <v>0</v>
       </c>
       <c r="G38" s="28"/>
@@ -46969,7 +46969,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="33"/>
       <c r="F14" s="36">
-        <f t="shared" ref="F13:F62" si="0">D14*E14</f>
+        <f t="shared" ref="F14:F62" si="0">D14*E14</f>
         <v>0</v>
       </c>
       <c r="G14" s="28"/>
@@ -47666,7 +47666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC33450-E8CA-4904-9C1D-D0A909D1A916}">
   <dimension ref="A1:IT66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -56085,7 +56085,7 @@
       <c r="D45" s="29"/>
       <c r="E45" s="33"/>
       <c r="F45" s="36">
-        <f t="shared" ref="F13:F62" si="0">D45*E45</f>
+        <f t="shared" ref="F45:F62" si="0">D45*E45</f>
         <v>0</v>
       </c>
       <c r="G45" s="28"/>
